--- a/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Liquidity_GAP.xlsx
+++ b/lib/report/benchmark_report/web14/exl/202206/jsliu__bank_test_&_city_(HF)(202206)_Liquidity_GAP.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">Cycle: June, 2022        Evaluation Date: June 30, 2022</t>
   </si>
   <si>
-    <t>Printed on: 08/08/22 6:01:49 PM</t>
+    <t>Printed on: 08/09/22 10:02:54 AM</t>
   </si>
   <si>
     <t xml:space="preserve">Scenario: Dn 200BP,Dn 100BP,Base,Up 100BP,Up 200BP,Up 300BP,Up 400BP,Flattener       Principal based</t>
